--- a/CooperDi/Mock EGE exams/mock_ege_25049996_PREEXAM/22_15337.xlsx
+++ b/CooperDi/Mock EGE exams/mock_ege_25049996_PREEXAM/22_15337.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maratishimov/Documents/Documents/КИМ 2024/ЕГЭ_Основа_2023/досрок/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\CooperDi\Mock EGE exams\mock_ege_25049996_PREEXAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D95527-94A7-5646-933B-05330494FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75055E4A-85B4-4E1E-A5CC-FC34572C18A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -48,15 +50,36 @@
   <si>
     <t>10; 11</t>
   </si>
+  <si>
+    <t>Ответ 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -71,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -79,20 +102,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,31 +459,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="25" width="4.140625" customWidth="1"/>
+    <col min="26" max="52" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+      <c r="Q1">
+        <v>13</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>18</v>
+      </c>
+      <c r="W1">
+        <v>19</v>
+      </c>
+      <c r="X1">
+        <v>20</v>
+      </c>
+      <c r="Y1">
+        <v>21</v>
+      </c>
+      <c r="Z1">
+        <v>22</v>
+      </c>
+      <c r="AA1">
+        <v>23</v>
+      </c>
+      <c r="AB1">
+        <v>24</v>
+      </c>
+      <c r="AC1">
+        <v>25</v>
+      </c>
+      <c r="AD1">
+        <v>26</v>
+      </c>
+      <c r="AE1">
+        <v>27</v>
+      </c>
+      <c r="AF1">
+        <v>28</v>
+      </c>
+      <c r="AG1">
+        <v>29</v>
+      </c>
+      <c r="AH1">
+        <v>30</v>
+      </c>
+      <c r="AI1">
+        <v>31</v>
+      </c>
+      <c r="AJ1">
+        <v>32</v>
+      </c>
+      <c r="AK1">
+        <v>33</v>
+      </c>
+      <c r="AL1">
+        <v>34</v>
+      </c>
+      <c r="AM1">
+        <v>35</v>
+      </c>
+      <c r="AN1">
+        <v>36</v>
+      </c>
+      <c r="AO1">
+        <v>37</v>
+      </c>
+      <c r="AP1">
+        <v>38</v>
+      </c>
+      <c r="AQ1">
+        <v>39</v>
+      </c>
+      <c r="AR1">
+        <v>40</v>
+      </c>
+      <c r="AS1">
+        <v>41</v>
+      </c>
+      <c r="AT1">
+        <v>42</v>
+      </c>
+      <c r="AU1">
+        <v>43</v>
+      </c>
+      <c r="AV1">
+        <v>44</v>
+      </c>
+      <c r="AW1">
+        <v>45</v>
+      </c>
+      <c r="AX1">
+        <v>46</v>
+      </c>
+      <c r="AY1">
+        <v>47</v>
+      </c>
+      <c r="AZ1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,8 +642,23 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -413,8 +668,20 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -424,8 +691,32 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -435,8 +726,29 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -446,8 +758,32 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -457,8 +793,20 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X7" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -468,8 +816,17 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="AB8" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -479,8 +836,11 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="AE9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -490,8 +850,35 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="P10" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -501,8 +888,32 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="P11" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -512,8 +923,29 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Q12" s="7">
+        <v>11</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -523,8 +955,26 @@
       <c r="C13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X13" s="7">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -534,8 +984,231 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="X14" s="7">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>COUNTA(D2:D14)</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:AZ15" si="0">COUNTA(E2:E14)</f>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <f>COUNTA(R2:R14)</f>
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <f>COUNTA(S2:S14)</f>
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <f>COUNTA(T2:T14)</f>
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <f>COUNTA(U2:U14)</f>
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <f>COUNTA(V2:V14)</f>
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <f>COUNTA(W2:W14)</f>
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <f>COUNTA(X2:X14)</f>
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f>COUNTA(Y2:Y14)</f>
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <f>COUNTA(Z2:Z14)</f>
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <f>COUNTA(AA2:AA14)</f>
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <f>COUNTA(AB2:AB14)</f>
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <f>COUNTA(AC2:AC14)</f>
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <f>COUNTA(AD2:AD14)</f>
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="21" x14ac:dyDescent="0.35">
+      <c r="R16" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D15:AZ15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>